--- a/тх81 Спецификация по деталям(14.12.19).xlsx
+++ b/тх81 Спецификация по деталям(14.12.19).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roman\Autowork\2019\dopwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCEC421-08EF-4661-B4C0-D90B413E3E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3CA9D4-9D43-4A63-89C4-1E418CCDF479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="149">
   <si>
     <t>Наименование</t>
   </si>
@@ -104,9 +104,6 @@
     <t>МДФ 18 шпон</t>
   </si>
   <si>
-    <t>шпон</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
@@ -396,6 +393,90 @@
   </si>
   <si>
     <t>81.5</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>561.5</t>
+  </si>
+  <si>
+    <t>327.5</t>
+  </si>
+  <si>
+    <t>паз см. Лист 4</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>941</t>
+  </si>
+  <si>
+    <t>шпон 0.5</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>Крышка секции</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>Полка переставная</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>292.5</t>
+  </si>
+  <si>
+    <t>Полка</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>Фасад</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>вырез под руку. Петли. См лист 4</t>
+  </si>
+  <si>
+    <t>отверстие 150 мм. См лист 4</t>
+  </si>
+  <si>
+    <t>паз см. Вырез.  Лист 4</t>
   </si>
 </sst>
 </file>
@@ -700,7 +781,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -713,6 +793,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,20 +1159,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -1111,12 +1194,12 @@
       <c r="F3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1183,20 +1266,20 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -1218,16 +1301,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>17</v>
@@ -1256,16 +1339,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>17</v>
@@ -1294,16 +1377,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>17</v>
@@ -1332,16 +1415,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="23">
@@ -1350,7 +1433,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>15</v>
@@ -1368,16 +1451,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="23">
@@ -1386,7 +1469,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>14</v>
@@ -1404,16 +1487,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>17</v>
@@ -1424,7 +1507,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>19</v>
@@ -1442,16 +1525,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>17</v>
@@ -1462,7 +1545,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>19</v>
@@ -1480,16 +1563,16 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>17</v>
@@ -1500,10 +1583,10 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="C14" s="23">
         <v>895</v>
@@ -1518,19 +1601,19 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" s="23">
         <v>2</v>
@@ -1538,10 +1621,10 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>33</v>
       </c>
       <c r="C15" s="23">
         <v>598</v>
@@ -1556,16 +1639,16 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="23">
@@ -1574,10 +1657,10 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="23">
         <v>600</v>
@@ -1592,16 +1675,16 @@
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="K16" s="22"/>
       <c r="L16" s="23">
@@ -1610,10 +1693,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>36</v>
       </c>
       <c r="C17" s="23">
         <v>1650</v>
@@ -1628,16 +1711,16 @@
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="K17" s="22"/>
       <c r="L17" s="23">
@@ -1673,20 +1756,20 @@
       <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
+      <c r="A20" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1707,12 +1790,12 @@
       <c r="F21" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
@@ -1746,30 +1829,30 @@
       <c r="K22" s="12"/>
       <c r="L22" s="13"/>
       <c r="N22" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="30" t="s">
         <v>46</v>
-      </c>
-      <c r="O22" s="30" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="D23" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="42" t="s">
-        <v>45</v>
-      </c>
       <c r="E23" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G23" s="45">
         <v>2</v>
@@ -1792,22 +1875,22 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>49</v>
-      </c>
       <c r="D24" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G24" s="45">
         <v>2</v>
@@ -1830,22 +1913,22 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="42" t="s">
-        <v>51</v>
-      </c>
       <c r="E25" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G25" s="45">
         <v>2</v>
@@ -1868,22 +1951,22 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>53</v>
-      </c>
       <c r="E26" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G26" s="45"/>
       <c r="H26" s="45">
@@ -1904,19 +1987,19 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="39" t="s">
+      <c r="D27" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="42" t="s">
-        <v>56</v>
-      </c>
       <c r="E27" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="28">
         <v>2</v>
@@ -1946,19 +2029,19 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="28">
         <v>2</v>
@@ -1984,19 +2067,19 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="39" t="s">
+      <c r="D29" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="42" t="s">
-        <v>60</v>
-      </c>
       <c r="E29" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="28">
         <v>1</v>
@@ -2020,22 +2103,22 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G30" s="45">
         <v>2</v>
@@ -2060,22 +2143,22 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>66</v>
-      </c>
       <c r="D31" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G31" s="45">
         <v>2</v>
@@ -2098,22 +2181,22 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G32" s="45"/>
       <c r="H32" s="45">
@@ -2134,19 +2217,19 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="39" t="s">
+      <c r="D33" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="42" t="s">
-        <v>70</v>
-      </c>
       <c r="E33" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="28">
         <v>2</v>
@@ -2160,7 +2243,7 @@
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L33" s="23"/>
       <c r="N33" s="41">
@@ -2174,19 +2257,19 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="C34" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="D34" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="42" t="s">
-        <v>79</v>
-      </c>
       <c r="E34" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="28">
         <v>2</v>
@@ -2212,19 +2295,19 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="28">
         <v>2</v>
@@ -2250,22 +2333,22 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G36" s="45">
         <v>2</v>
@@ -2290,22 +2373,22 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G37" s="45">
         <v>2</v>
@@ -2328,22 +2411,22 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G38" s="45"/>
       <c r="H38" s="45">
@@ -2364,19 +2447,19 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>85</v>
-      </c>
       <c r="D39" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" s="28">
         <v>2</v>
@@ -2406,19 +2489,19 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>87</v>
-      </c>
       <c r="E40" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40" s="28">
         <v>2</v>
@@ -2444,19 +2527,19 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>89</v>
-      </c>
       <c r="E41" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" s="28">
         <v>2</v>
@@ -2480,22 +2563,22 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>91</v>
-      </c>
       <c r="D42" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E42" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G42" s="45">
         <v>2</v>
@@ -2520,19 +2603,19 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="39" t="s">
+      <c r="D43" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="42" t="s">
-        <v>94</v>
-      </c>
       <c r="E43" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F43" s="28">
         <v>2</v>
@@ -2558,19 +2641,19 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="39" t="s">
+      <c r="D44" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="E44" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44" s="28">
         <v>1</v>
@@ -2600,19 +2683,19 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>100</v>
-      </c>
       <c r="E45" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" s="28">
         <v>2</v>
@@ -2638,22 +2721,22 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>102</v>
-      </c>
       <c r="D46" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E46" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G46" s="45">
         <v>2</v>
@@ -2678,22 +2761,22 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E47" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G47" s="45">
         <v>2</v>
@@ -2716,22 +2799,22 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>105</v>
-      </c>
       <c r="D48" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G48" s="45"/>
       <c r="H48" s="45">
@@ -2752,19 +2835,19 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="42" t="s">
-        <v>109</v>
-      </c>
       <c r="E49" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F49" s="28">
         <v>2</v>
@@ -2778,7 +2861,7 @@
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
       <c r="K49" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L49" s="33"/>
       <c r="N49" s="41">
@@ -2792,19 +2875,19 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F50" s="28">
         <v>2</v>
@@ -2830,19 +2913,19 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F51" s="28">
         <v>2</v>
@@ -2868,22 +2951,22 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E52" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G52" s="45">
         <v>2</v>
@@ -2908,22 +2991,22 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="27" t="s">
-        <v>114</v>
-      </c>
       <c r="C53" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E53" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G53" s="45">
         <v>2</v>
@@ -2944,22 +3027,22 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G54" s="45">
         <v>2</v>
@@ -2982,22 +3065,22 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E55" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G55" s="45"/>
       <c r="H55" s="45">
@@ -3018,19 +3101,19 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>118</v>
-      </c>
       <c r="D56" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F56" s="28">
         <v>2</v>
@@ -3056,19 +3139,19 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="39" t="s">
+      <c r="D57" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="42" t="s">
-        <v>121</v>
-      </c>
       <c r="E57" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" s="28">
         <v>2</v>
@@ -3093,179 +3176,329 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="33"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="35"/>
+      <c r="A58" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="28">
+        <v>1</v>
+      </c>
+      <c r="G58" s="45">
+        <v>2</v>
+      </c>
+      <c r="H58" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="J58" s="41"/>
+      <c r="K58" s="32" t="s">
+        <v>124</v>
+      </c>
       <c r="L58" s="33"/>
       <c r="N58" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="O58" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="35"/>
+      <c r="A59" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="28">
+        <v>1</v>
+      </c>
+      <c r="G59" s="45">
+        <v>2</v>
+      </c>
+      <c r="H59" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I59" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="J59" s="41"/>
+      <c r="K59" s="32" t="s">
+        <v>124</v>
+      </c>
       <c r="L59" s="33"/>
       <c r="N59" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="O59" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="33"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="35"/>
+      <c r="A60" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="28">
+        <v>1</v>
+      </c>
+      <c r="G60" s="45">
+        <v>2</v>
+      </c>
+      <c r="H60" s="45"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="32"/>
       <c r="L60" s="33"/>
       <c r="N60" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="O60" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="35"/>
+      <c r="A61" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="28">
+        <v>1</v>
+      </c>
+      <c r="G61" s="45">
+        <v>2</v>
+      </c>
+      <c r="H61" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I61" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="J61" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="K61" s="32" t="s">
+        <v>148</v>
+      </c>
       <c r="L61" s="33"/>
       <c r="N61" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="O61" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="32"/>
+      <c r="A62" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="28">
+        <v>1</v>
+      </c>
+      <c r="G62" s="45">
+        <v>2</v>
+      </c>
+      <c r="H62" s="45"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="32" t="s">
+        <v>147</v>
+      </c>
       <c r="L62" s="23"/>
       <c r="N62" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="O62" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="32"/>
+      <c r="A63" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="28">
+        <v>1</v>
+      </c>
+      <c r="G63" s="45">
+        <v>2</v>
+      </c>
+      <c r="H63" s="45"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="32" t="s">
+        <v>147</v>
+      </c>
       <c r="L63" s="23"/>
       <c r="N63" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="O63" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="36"/>
+      <c r="A64" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="28">
+        <v>1</v>
+      </c>
+      <c r="G64" s="45">
+        <v>2</v>
+      </c>
+      <c r="H64" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="J64" s="36">
+        <v>0.5</v>
+      </c>
       <c r="K64" s="32"/>
       <c r="L64" s="23"/>
       <c r="N64" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="O64" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="32"/>
+      <c r="A65" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="28">
+        <v>1</v>
+      </c>
+      <c r="G65" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I65" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="J65" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="K65" s="32" t="s">
+        <v>146</v>
+      </c>
       <c r="L65" s="23"/>
       <c r="N65" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="O65" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>542</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -3407,10 +3640,10 @@
       <c r="D72" s="44"/>
       <c r="E72" s="33"/>
       <c r="F72" s="33"/>
-      <c r="G72" s="48"/>
+      <c r="G72" s="47"/>
       <c r="H72" s="44"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="47"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="41"/>
       <c r="K72" s="35"/>
       <c r="L72" s="33"/>
       <c r="N72" s="41">
@@ -3429,10 +3662,10 @@
       <c r="D73" s="44"/>
       <c r="E73" s="33"/>
       <c r="F73" s="33"/>
-      <c r="G73" s="48"/>
+      <c r="G73" s="47"/>
       <c r="H73" s="44"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="47"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="41"/>
       <c r="K73" s="35"/>
       <c r="L73" s="33"/>
       <c r="N73" s="41">
@@ -3451,10 +3684,10 @@
       <c r="D74" s="44"/>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
-      <c r="G74" s="48"/>
+      <c r="G74" s="47"/>
       <c r="H74" s="44"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="47"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="41"/>
       <c r="K74" s="35"/>
       <c r="L74" s="33"/>
       <c r="N74" s="41">
@@ -3473,10 +3706,10 @@
       <c r="D75" s="44"/>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
-      <c r="G75" s="48"/>
+      <c r="G75" s="47"/>
       <c r="H75" s="44"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="47"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="41"/>
       <c r="K75" s="35"/>
       <c r="L75" s="33"/>
       <c r="N75" s="41">
@@ -3495,10 +3728,10 @@
       <c r="D76" s="44"/>
       <c r="E76" s="33"/>
       <c r="F76" s="33"/>
-      <c r="G76" s="48"/>
+      <c r="G76" s="47"/>
       <c r="H76" s="44"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="47"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="41"/>
       <c r="K76" s="35"/>
       <c r="L76" s="33"/>
       <c r="N76" s="41">
@@ -3517,10 +3750,10 @@
       <c r="D77" s="44"/>
       <c r="E77" s="33"/>
       <c r="F77" s="33"/>
-      <c r="G77" s="48"/>
+      <c r="G77" s="47"/>
       <c r="H77" s="44"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="47"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="41"/>
       <c r="K77" s="35"/>
       <c r="L77" s="33"/>
       <c r="N77" s="41">
@@ -3539,10 +3772,10 @@
       <c r="D78" s="44"/>
       <c r="E78" s="33"/>
       <c r="F78" s="33"/>
-      <c r="G78" s="48"/>
+      <c r="G78" s="47"/>
       <c r="H78" s="44"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="47"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="41"/>
       <c r="K78" s="35"/>
       <c r="L78" s="33"/>
       <c r="N78" s="41">
@@ -3561,10 +3794,10 @@
       <c r="D79" s="44"/>
       <c r="E79" s="33"/>
       <c r="F79" s="33"/>
-      <c r="G79" s="48"/>
+      <c r="G79" s="47"/>
       <c r="H79" s="44"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="47"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="41"/>
       <c r="K79" s="35"/>
       <c r="L79" s="33"/>
       <c r="N79" s="41">
@@ -3583,10 +3816,10 @@
       <c r="D80" s="44"/>
       <c r="E80" s="33"/>
       <c r="F80" s="33"/>
-      <c r="G80" s="48"/>
+      <c r="G80" s="47"/>
       <c r="H80" s="44"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="47"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="41"/>
       <c r="K80" s="35"/>
       <c r="L80" s="33"/>
       <c r="N80" s="41">

--- a/тх81 Спецификация по деталям(14.12.19).xlsx
+++ b/тх81 Спецификация по деталям(14.12.19).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roman\Autowork\2019\dopwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3CA9D4-9D43-4A63-89C4-1E418CCDF479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD48EF1-C664-4972-B66E-2B214735694F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="181">
   <si>
     <t>Наименование</t>
   </si>
@@ -477,6 +477,102 @@
   </si>
   <si>
     <t>паз см. Вырез.  Лист 4</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>паз см. Вырез.  Лист 5</t>
+  </si>
+  <si>
+    <t>паз см. Лист 5</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>746.5</t>
+  </si>
+  <si>
+    <t>577.5</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>паз см. Лист 6</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>Полка секции</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>355.5</t>
+  </si>
+  <si>
+    <t>252.5</t>
+  </si>
+  <si>
+    <t>Стенка (4 шт)</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>Стенка (2 шт)</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>Отверстие 150 мм паз см. Лист 6</t>
+  </si>
+  <si>
+    <t>Отверстие 150 мм см. Лист 6</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>паз см. Лист 7</t>
+  </si>
+  <si>
+    <t>Паз см. Лист 7</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>1979</t>
   </si>
 </sst>
 </file>
@@ -649,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -762,16 +858,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -782,6 +872,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -793,9 +886,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB80"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,20 +1249,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -1194,12 +1284,12 @@
       <c r="F3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1266,20 +1356,20 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -1756,20 +1846,20 @@
       <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1790,12 +1880,12 @@
       <c r="F21" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
@@ -1845,7 +1935,7 @@
       <c r="C23" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="41" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="26" t="s">
@@ -1854,21 +1944,21 @@
       <c r="F23" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="45">
-        <v>2</v>
-      </c>
-      <c r="H23" s="45"/>
+      <c r="G23" s="43">
+        <v>2</v>
+      </c>
+      <c r="H23" s="43"/>
       <c r="I23" s="36">
         <v>0.5</v>
       </c>
       <c r="J23" s="36"/>
       <c r="K23" s="29"/>
       <c r="L23" s="26"/>
-      <c r="N23" s="41">
+      <c r="N23" s="40">
         <f>C23+I23+J23</f>
         <v>777</v>
       </c>
-      <c r="O23" s="41">
+      <c r="O23" s="40">
         <f>D23+G23+H23</f>
         <v>360</v>
       </c>
@@ -1883,7 +1973,7 @@
       <c r="C24" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="41" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="26" t="s">
@@ -1892,21 +1982,21 @@
       <c r="F24" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="45">
-        <v>2</v>
-      </c>
-      <c r="H24" s="45"/>
+      <c r="G24" s="43">
+        <v>2</v>
+      </c>
+      <c r="H24" s="43"/>
       <c r="I24" s="36">
         <v>0.5</v>
       </c>
       <c r="J24" s="36"/>
       <c r="K24" s="29"/>
       <c r="L24" s="26"/>
-      <c r="N24" s="41">
+      <c r="N24" s="40">
         <f t="shared" ref="N24:N80" si="0">C24+I24+J24</f>
         <v>581</v>
       </c>
-      <c r="O24" s="41">
+      <c r="O24" s="40">
         <f t="shared" ref="O24:O80" si="1">D24+G24+H24</f>
         <v>360</v>
       </c>
@@ -1921,7 +2011,7 @@
       <c r="C25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="41" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="26" t="s">
@@ -1930,21 +2020,21 @@
       <c r="F25" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="45">
-        <v>2</v>
-      </c>
-      <c r="H25" s="45">
+      <c r="G25" s="43">
+        <v>2</v>
+      </c>
+      <c r="H25" s="43">
         <v>0.5</v>
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
       <c r="K25" s="29"/>
       <c r="L25" s="26"/>
-      <c r="N25" s="41">
+      <c r="N25" s="40">
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-      <c r="O25" s="41">
+      <c r="O25" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -1959,7 +2049,7 @@
       <c r="C26" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="41" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="26" t="s">
@@ -1968,19 +2058,19 @@
       <c r="F26" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45">
+      <c r="G26" s="43"/>
+      <c r="H26" s="43">
         <v>0.5</v>
       </c>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
-      <c r="N26" s="41">
+      <c r="N26" s="40">
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -1995,7 +2085,7 @@
       <c r="C27" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="41" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -2004,10 +2094,10 @@
       <c r="F27" s="28">
         <v>2</v>
       </c>
-      <c r="G27" s="45">
-        <v>2</v>
-      </c>
-      <c r="H27" s="45">
+      <c r="G27" s="43">
+        <v>2</v>
+      </c>
+      <c r="H27" s="43">
         <v>0.5</v>
       </c>
       <c r="I27" s="36">
@@ -2018,11 +2108,11 @@
       </c>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
-      <c r="N27" s="41">
+      <c r="N27" s="40">
         <f t="shared" si="0"/>
         <v>561</v>
       </c>
-      <c r="O27" s="41">
+      <c r="O27" s="40">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
@@ -2037,7 +2127,7 @@
       <c r="C28" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="41" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="26" t="s">
@@ -2046,21 +2136,21 @@
       <c r="F28" s="28">
         <v>2</v>
       </c>
-      <c r="G28" s="45">
-        <v>2</v>
-      </c>
-      <c r="H28" s="45"/>
+      <c r="G28" s="43">
+        <v>2</v>
+      </c>
+      <c r="H28" s="43"/>
       <c r="I28" s="36">
         <v>0.5</v>
       </c>
       <c r="J28" s="36"/>
       <c r="K28" s="31"/>
       <c r="L28" s="31"/>
-      <c r="N28" s="41">
+      <c r="N28" s="40">
         <f t="shared" si="0"/>
         <v>742</v>
       </c>
-      <c r="O28" s="41">
+      <c r="O28" s="40">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
@@ -2075,7 +2165,7 @@
       <c r="C29" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="41" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -2084,19 +2174,19 @@
       <c r="F29" s="28">
         <v>1</v>
       </c>
-      <c r="G29" s="45">
-        <v>2</v>
-      </c>
-      <c r="H29" s="45"/>
+      <c r="G29" s="43">
+        <v>2</v>
+      </c>
+      <c r="H29" s="43"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
-      <c r="N29" s="41">
+      <c r="N29" s="40">
         <f t="shared" si="0"/>
         <v>724</v>
       </c>
-      <c r="O29" s="41">
+      <c r="O29" s="40">
         <f t="shared" si="1"/>
         <v>355</v>
       </c>
@@ -2111,7 +2201,7 @@
       <c r="C30" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="41" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="26" t="s">
@@ -2120,10 +2210,10 @@
       <c r="F30" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="45">
-        <v>2</v>
-      </c>
-      <c r="H30" s="45"/>
+      <c r="G30" s="43">
+        <v>2</v>
+      </c>
+      <c r="H30" s="43"/>
       <c r="I30" s="36">
         <v>0.5</v>
       </c>
@@ -2132,11 +2222,11 @@
       </c>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
-      <c r="N30" s="41">
+      <c r="N30" s="40">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="O30" s="41">
+      <c r="O30" s="40">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
@@ -2151,7 +2241,7 @@
       <c r="C31" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="41" t="s">
         <v>50</v>
       </c>
       <c r="E31" s="26" t="s">
@@ -2160,21 +2250,21 @@
       <c r="F31" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="45">
-        <v>2</v>
-      </c>
-      <c r="H31" s="45">
+      <c r="G31" s="43">
+        <v>2</v>
+      </c>
+      <c r="H31" s="43">
         <v>0.5</v>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
-      <c r="N31" s="41">
+      <c r="N31" s="40">
         <f t="shared" si="0"/>
         <v>564</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O31" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -2189,7 +2279,7 @@
       <c r="C32" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="41" t="s">
         <v>52</v>
       </c>
       <c r="E32" s="26" t="s">
@@ -2198,19 +2288,19 @@
       <c r="F32" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45">
+      <c r="G32" s="43"/>
+      <c r="H32" s="43">
         <v>0.5</v>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
-      <c r="N32" s="41">
+      <c r="N32" s="40">
         <f t="shared" si="0"/>
         <v>564</v>
       </c>
-      <c r="O32" s="41">
+      <c r="O32" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -2225,7 +2315,7 @@
       <c r="C33" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="41" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="26" t="s">
@@ -2234,10 +2324,10 @@
       <c r="F33" s="28">
         <v>2</v>
       </c>
-      <c r="G33" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="H33" s="45">
+      <c r="G33" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="43">
         <v>0.5</v>
       </c>
       <c r="I33" s="36"/>
@@ -2246,11 +2336,11 @@
         <v>70</v>
       </c>
       <c r="L33" s="23"/>
-      <c r="N33" s="41">
+      <c r="N33" s="40">
         <f t="shared" si="0"/>
         <v>431</v>
       </c>
-      <c r="O33" s="41">
+      <c r="O33" s="40">
         <f t="shared" si="1"/>
         <v>326</v>
       </c>
@@ -2265,7 +2355,7 @@
       <c r="C34" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="41" t="s">
         <v>78</v>
       </c>
       <c r="E34" s="26" t="s">
@@ -2274,21 +2364,21 @@
       <c r="F34" s="28">
         <v>2</v>
       </c>
-      <c r="G34" s="45">
-        <v>2</v>
-      </c>
-      <c r="H34" s="45">
+      <c r="G34" s="43">
+        <v>2</v>
+      </c>
+      <c r="H34" s="43">
         <v>0.5</v>
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="31"/>
       <c r="L34" s="31"/>
-      <c r="N34" s="41">
+      <c r="N34" s="40">
         <f t="shared" si="0"/>
         <v>419</v>
       </c>
-      <c r="O34" s="41">
+      <c r="O34" s="40">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
@@ -2303,7 +2393,7 @@
       <c r="C35" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="41" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="26" t="s">
@@ -2312,21 +2402,21 @@
       <c r="F35" s="28">
         <v>2</v>
       </c>
-      <c r="G35" s="45">
-        <v>2</v>
-      </c>
-      <c r="H35" s="45"/>
+      <c r="G35" s="43">
+        <v>2</v>
+      </c>
+      <c r="H35" s="43"/>
       <c r="I35" s="36">
         <v>0.5</v>
       </c>
       <c r="J35" s="36"/>
       <c r="K35" s="31"/>
       <c r="L35" s="31"/>
-      <c r="N35" s="41">
+      <c r="N35" s="40">
         <f t="shared" si="0"/>
         <v>742</v>
       </c>
-      <c r="O35" s="41">
+      <c r="O35" s="40">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
@@ -2341,7 +2431,7 @@
       <c r="C36" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="41" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="26" t="s">
@@ -2350,10 +2440,10 @@
       <c r="F36" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="45">
-        <v>2</v>
-      </c>
-      <c r="H36" s="45"/>
+      <c r="G36" s="43">
+        <v>2</v>
+      </c>
+      <c r="H36" s="43"/>
       <c r="I36" s="36">
         <v>0.5</v>
       </c>
@@ -2362,11 +2452,11 @@
       </c>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
-      <c r="N36" s="41">
+      <c r="N36" s="40">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="O36" s="41">
+      <c r="O36" s="40">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
@@ -2381,7 +2471,7 @@
       <c r="C37" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="41" t="s">
         <v>50</v>
       </c>
       <c r="E37" s="26" t="s">
@@ -2390,21 +2480,21 @@
       <c r="F37" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="45">
-        <v>2</v>
-      </c>
-      <c r="H37" s="45">
+      <c r="G37" s="43">
+        <v>2</v>
+      </c>
+      <c r="H37" s="43">
         <v>0.5</v>
       </c>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
-      <c r="N37" s="41">
+      <c r="N37" s="40">
         <f t="shared" si="0"/>
         <v>564</v>
       </c>
-      <c r="O37" s="41">
+      <c r="O37" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -2419,7 +2509,7 @@
       <c r="C38" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="41" t="s">
         <v>52</v>
       </c>
       <c r="E38" s="26" t="s">
@@ -2428,19 +2518,19 @@
       <c r="F38" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45">
+      <c r="G38" s="43"/>
+      <c r="H38" s="43">
         <v>0.5</v>
       </c>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
-      <c r="N38" s="41">
+      <c r="N38" s="40">
         <f t="shared" si="0"/>
         <v>564</v>
       </c>
-      <c r="O38" s="41">
+      <c r="O38" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -2455,7 +2545,7 @@
       <c r="C39" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="41" t="s">
         <v>55</v>
       </c>
       <c r="E39" s="26" t="s">
@@ -2464,10 +2554,10 @@
       <c r="F39" s="28">
         <v>2</v>
       </c>
-      <c r="G39" s="45">
-        <v>2</v>
-      </c>
-      <c r="H39" s="45">
+      <c r="G39" s="43">
+        <v>2</v>
+      </c>
+      <c r="H39" s="43">
         <v>0.5</v>
       </c>
       <c r="I39" s="36">
@@ -2478,11 +2568,11 @@
       </c>
       <c r="K39" s="32"/>
       <c r="L39" s="23"/>
-      <c r="N39" s="41">
+      <c r="N39" s="40">
         <f t="shared" si="0"/>
         <v>562</v>
       </c>
-      <c r="O39" s="41">
+      <c r="O39" s="40">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
@@ -2497,7 +2587,7 @@
       <c r="C40" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="41" t="s">
         <v>86</v>
       </c>
       <c r="E40" s="26" t="s">
@@ -2506,21 +2596,21 @@
       <c r="F40" s="28">
         <v>2</v>
       </c>
-      <c r="G40" s="45">
-        <v>2</v>
-      </c>
-      <c r="H40" s="45"/>
+      <c r="G40" s="43">
+        <v>2</v>
+      </c>
+      <c r="H40" s="43"/>
       <c r="I40" s="36">
         <v>0.5</v>
       </c>
       <c r="J40" s="36"/>
       <c r="K40" s="31"/>
       <c r="L40" s="31"/>
-      <c r="N40" s="41">
+      <c r="N40" s="40">
         <f t="shared" si="0"/>
         <v>742</v>
       </c>
-      <c r="O40" s="41">
+      <c r="O40" s="40">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
@@ -2535,7 +2625,7 @@
       <c r="C41" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="41" t="s">
         <v>88</v>
       </c>
       <c r="E41" s="26" t="s">
@@ -2544,19 +2634,19 @@
       <c r="F41" s="28">
         <v>2</v>
       </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
       <c r="I41" s="36">
         <v>0.5</v>
       </c>
       <c r="J41" s="36"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
-      <c r="N41" s="41">
+      <c r="N41" s="40">
         <f t="shared" si="0"/>
         <v>742</v>
       </c>
-      <c r="O41" s="41">
+      <c r="O41" s="40">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
@@ -2571,7 +2661,7 @@
       <c r="C42" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="41" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="26" t="s">
@@ -2580,10 +2670,10 @@
       <c r="F42" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G42" s="45">
-        <v>2</v>
-      </c>
-      <c r="H42" s="45"/>
+      <c r="G42" s="43">
+        <v>2</v>
+      </c>
+      <c r="H42" s="43"/>
       <c r="I42" s="36">
         <v>0.5</v>
       </c>
@@ -2592,11 +2682,11 @@
       </c>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
-      <c r="N42" s="41">
+      <c r="N42" s="40">
         <f t="shared" si="0"/>
         <v>899</v>
       </c>
-      <c r="O42" s="41">
+      <c r="O42" s="40">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
@@ -2611,7 +2701,7 @@
       <c r="C43" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="41" t="s">
         <v>93</v>
       </c>
       <c r="E43" s="26" t="s">
@@ -2620,21 +2710,21 @@
       <c r="F43" s="28">
         <v>2</v>
       </c>
-      <c r="G43" s="45">
-        <v>2</v>
-      </c>
-      <c r="H43" s="45">
+      <c r="G43" s="43">
+        <v>2</v>
+      </c>
+      <c r="H43" s="43">
         <v>0.5</v>
       </c>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
-      <c r="N43" s="41">
+      <c r="N43" s="40">
         <f t="shared" si="0"/>
         <v>863</v>
       </c>
-      <c r="O43" s="41">
+      <c r="O43" s="40">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -2649,7 +2739,7 @@
       <c r="C44" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="41" t="s">
         <v>97</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -2658,10 +2748,10 @@
       <c r="F44" s="28">
         <v>1</v>
       </c>
-      <c r="G44" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="H44" s="45">
+      <c r="G44" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="43">
         <v>0.5</v>
       </c>
       <c r="I44" s="36">
@@ -2672,11 +2762,11 @@
       </c>
       <c r="K44" s="32"/>
       <c r="L44" s="23"/>
-      <c r="N44" s="41">
+      <c r="N44" s="40">
         <f t="shared" si="0"/>
         <v>760</v>
       </c>
-      <c r="O44" s="41">
+      <c r="O44" s="40">
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
@@ -2691,7 +2781,7 @@
       <c r="C45" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E45" s="26" t="s">
@@ -2700,21 +2790,21 @@
       <c r="F45" s="28">
         <v>2</v>
       </c>
-      <c r="G45" s="45">
-        <v>2</v>
-      </c>
-      <c r="H45" s="45"/>
+      <c r="G45" s="43">
+        <v>2</v>
+      </c>
+      <c r="H45" s="43"/>
       <c r="I45" s="36">
         <v>0.5</v>
       </c>
       <c r="J45" s="36"/>
       <c r="K45" s="32"/>
       <c r="L45" s="23"/>
-      <c r="N45" s="41">
+      <c r="N45" s="40">
         <f t="shared" si="0"/>
         <v>742</v>
       </c>
-      <c r="O45" s="41">
+      <c r="O45" s="40">
         <f t="shared" si="1"/>
         <v>520</v>
       </c>
@@ -2729,7 +2819,7 @@
       <c r="C46" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E46" s="26" t="s">
@@ -2738,10 +2828,10 @@
       <c r="F46" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="45">
-        <v>2</v>
-      </c>
-      <c r="H46" s="45"/>
+      <c r="G46" s="43">
+        <v>2</v>
+      </c>
+      <c r="H46" s="43"/>
       <c r="I46" s="36">
         <v>0.5</v>
       </c>
@@ -2750,11 +2840,11 @@
       </c>
       <c r="K46" s="32"/>
       <c r="L46" s="23"/>
-      <c r="N46" s="41">
+      <c r="N46" s="40">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="O46" s="41">
+      <c r="O46" s="40">
         <f t="shared" si="1"/>
         <v>520</v>
       </c>
@@ -2769,7 +2859,7 @@
       <c r="C47" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="41" t="s">
         <v>50</v>
       </c>
       <c r="E47" s="26" t="s">
@@ -2778,21 +2868,21 @@
       <c r="F47" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="45">
-        <v>2</v>
-      </c>
-      <c r="H47" s="45">
+      <c r="G47" s="43">
+        <v>2</v>
+      </c>
+      <c r="H47" s="43">
         <v>0.5</v>
       </c>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
       <c r="K47" s="35"/>
       <c r="L47" s="33"/>
-      <c r="N47" s="41">
+      <c r="N47" s="40">
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="O47" s="41">
+      <c r="O47" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -2807,7 +2897,7 @@
       <c r="C48" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="41" t="s">
         <v>52</v>
       </c>
       <c r="E48" s="26" t="s">
@@ -2816,19 +2906,19 @@
       <c r="F48" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45">
+      <c r="G48" s="43"/>
+      <c r="H48" s="43">
         <v>0.5</v>
       </c>
       <c r="I48" s="36"/>
       <c r="J48" s="36"/>
       <c r="K48" s="35"/>
       <c r="L48" s="33"/>
-      <c r="N48" s="41">
+      <c r="N48" s="40">
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="O48" s="41">
+      <c r="O48" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -2843,7 +2933,7 @@
       <c r="C49" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="41" t="s">
         <v>108</v>
       </c>
       <c r="E49" s="26" t="s">
@@ -2852,10 +2942,10 @@
       <c r="F49" s="28">
         <v>2</v>
       </c>
-      <c r="G49" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="H49" s="45">
+      <c r="G49" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="43">
         <v>0.5</v>
       </c>
       <c r="I49" s="36"/>
@@ -2864,11 +2954,11 @@
         <v>70</v>
       </c>
       <c r="L49" s="33"/>
-      <c r="N49" s="41">
+      <c r="N49" s="40">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="O49" s="41">
+      <c r="O49" s="40">
         <f t="shared" si="1"/>
         <v>476</v>
       </c>
@@ -2883,7 +2973,7 @@
       <c r="C50" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="41" t="s">
         <v>78</v>
       </c>
       <c r="E50" s="26" t="s">
@@ -2892,21 +2982,21 @@
       <c r="F50" s="28">
         <v>2</v>
       </c>
-      <c r="G50" s="45">
-        <v>2</v>
-      </c>
-      <c r="H50" s="45">
+      <c r="G50" s="43">
+        <v>2</v>
+      </c>
+      <c r="H50" s="43">
         <v>0.5</v>
       </c>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
       <c r="K50" s="31"/>
       <c r="L50" s="33"/>
-      <c r="N50" s="41">
+      <c r="N50" s="40">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="O50" s="41">
+      <c r="O50" s="40">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
@@ -2921,7 +3011,7 @@
       <c r="C51" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E51" s="26" t="s">
@@ -2930,21 +3020,21 @@
       <c r="F51" s="28">
         <v>2</v>
       </c>
-      <c r="G51" s="45">
-        <v>2</v>
-      </c>
-      <c r="H51" s="45"/>
+      <c r="G51" s="43">
+        <v>2</v>
+      </c>
+      <c r="H51" s="43"/>
       <c r="I51" s="36">
         <v>0.5</v>
       </c>
       <c r="J51" s="36"/>
       <c r="K51" s="35"/>
       <c r="L51" s="33"/>
-      <c r="N51" s="41">
+      <c r="N51" s="40">
         <f t="shared" si="0"/>
         <v>742</v>
       </c>
-      <c r="O51" s="41">
+      <c r="O51" s="40">
         <f t="shared" si="1"/>
         <v>520</v>
       </c>
@@ -2959,7 +3049,7 @@
       <c r="C52" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="42" t="s">
+      <c r="D52" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E52" s="26" t="s">
@@ -2968,10 +3058,10 @@
       <c r="F52" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G52" s="45">
-        <v>2</v>
-      </c>
-      <c r="H52" s="45"/>
+      <c r="G52" s="43">
+        <v>2</v>
+      </c>
+      <c r="H52" s="43"/>
       <c r="I52" s="36">
         <v>0.5</v>
       </c>
@@ -2980,11 +3070,11 @@
       </c>
       <c r="K52" s="35"/>
       <c r="L52" s="33"/>
-      <c r="N52" s="41">
+      <c r="N52" s="40">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="O52" s="41">
+      <c r="O52" s="40">
         <f t="shared" si="1"/>
         <v>520</v>
       </c>
@@ -2999,7 +3089,7 @@
       <c r="C53" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E53" s="26" t="s">
@@ -3008,19 +3098,19 @@
       <c r="F53" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="45">
-        <v>2</v>
-      </c>
-      <c r="H53" s="45"/>
+      <c r="G53" s="43">
+        <v>2</v>
+      </c>
+      <c r="H53" s="43"/>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
       <c r="K53" s="35"/>
       <c r="L53" s="33"/>
-      <c r="N53" s="41">
+      <c r="N53" s="40">
         <f t="shared" si="0"/>
         <v>564</v>
       </c>
-      <c r="O53" s="41">
+      <c r="O53" s="40">
         <f t="shared" si="1"/>
         <v>520</v>
       </c>
@@ -3035,7 +3125,7 @@
       <c r="C54" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="42" t="s">
+      <c r="D54" s="41" t="s">
         <v>50</v>
       </c>
       <c r="E54" s="26" t="s">
@@ -3044,21 +3134,21 @@
       <c r="F54" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G54" s="45">
-        <v>2</v>
-      </c>
-      <c r="H54" s="45">
+      <c r="G54" s="43">
+        <v>2</v>
+      </c>
+      <c r="H54" s="43">
         <v>0.5</v>
       </c>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
       <c r="K54" s="35"/>
       <c r="L54" s="33"/>
-      <c r="N54" s="41">
+      <c r="N54" s="40">
         <f t="shared" si="0"/>
         <v>564</v>
       </c>
-      <c r="O54" s="41">
+      <c r="O54" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -3073,7 +3163,7 @@
       <c r="C55" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="41" t="s">
         <v>52</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -3082,19 +3172,19 @@
       <c r="F55" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45">
+      <c r="G55" s="43"/>
+      <c r="H55" s="43">
         <v>0.5</v>
       </c>
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
       <c r="K55" s="35"/>
       <c r="L55" s="33"/>
-      <c r="N55" s="41">
+      <c r="N55" s="40">
         <f t="shared" si="0"/>
         <v>564</v>
       </c>
-      <c r="O55" s="41">
+      <c r="O55" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -3109,7 +3199,7 @@
       <c r="C56" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="41" t="s">
         <v>108</v>
       </c>
       <c r="E56" s="26" t="s">
@@ -3118,21 +3208,21 @@
       <c r="F56" s="28">
         <v>2</v>
       </c>
-      <c r="G56" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="H56" s="45">
+      <c r="G56" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="H56" s="43">
         <v>0.5</v>
       </c>
       <c r="I56" s="36"/>
       <c r="J56" s="36"/>
       <c r="K56" s="35"/>
       <c r="L56" s="33"/>
-      <c r="N56" s="41">
+      <c r="N56" s="40">
         <f t="shared" si="0"/>
         <v>489</v>
       </c>
-      <c r="O56" s="41">
+      <c r="O56" s="40">
         <f t="shared" si="1"/>
         <v>476</v>
       </c>
@@ -3147,7 +3237,7 @@
       <c r="C57" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="41" t="s">
         <v>120</v>
       </c>
       <c r="E57" s="26" t="s">
@@ -3156,21 +3246,21 @@
       <c r="F57" s="28">
         <v>2</v>
       </c>
-      <c r="G57" s="45">
-        <v>2</v>
-      </c>
-      <c r="H57" s="45">
+      <c r="G57" s="43">
+        <v>2</v>
+      </c>
+      <c r="H57" s="43">
         <v>0.5</v>
       </c>
       <c r="I57" s="36"/>
       <c r="J57" s="36"/>
       <c r="K57" s="35"/>
       <c r="L57" s="33"/>
-      <c r="N57" s="41">
+      <c r="N57" s="40">
         <f t="shared" si="0"/>
         <v>477</v>
       </c>
-      <c r="O57" s="41">
+      <c r="O57" s="40">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
@@ -3185,7 +3275,7 @@
       <c r="C58" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="42" t="s">
+      <c r="D58" s="41" t="s">
         <v>123</v>
       </c>
       <c r="E58" s="26" t="s">
@@ -3194,25 +3284,25 @@
       <c r="F58" s="28">
         <v>1</v>
       </c>
-      <c r="G58" s="45">
-        <v>2</v>
-      </c>
-      <c r="H58" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I58" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="J58" s="41"/>
+      <c r="G58" s="43">
+        <v>2</v>
+      </c>
+      <c r="H58" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J58" s="40"/>
       <c r="K58" s="32" t="s">
         <v>124</v>
       </c>
       <c r="L58" s="33"/>
-      <c r="N58" s="41">
+      <c r="N58" s="40">
         <f t="shared" si="0"/>
         <v>562</v>
       </c>
-      <c r="O58" s="41">
+      <c r="O58" s="40">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
@@ -3227,7 +3317,7 @@
       <c r="C59" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="D59" s="41" t="s">
         <v>123</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -3236,25 +3326,25 @@
       <c r="F59" s="28">
         <v>1</v>
       </c>
-      <c r="G59" s="45">
-        <v>2</v>
-      </c>
-      <c r="H59" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I59" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="J59" s="41"/>
+      <c r="G59" s="43">
+        <v>2</v>
+      </c>
+      <c r="H59" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I59" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J59" s="40"/>
       <c r="K59" s="32" t="s">
         <v>124</v>
       </c>
       <c r="L59" s="33"/>
-      <c r="N59" s="41">
+      <c r="N59" s="40">
         <f t="shared" si="0"/>
         <v>562</v>
       </c>
-      <c r="O59" s="41">
+      <c r="O59" s="40">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
@@ -3269,7 +3359,7 @@
       <c r="C60" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="42" t="s">
+      <c r="D60" s="41" t="s">
         <v>128</v>
       </c>
       <c r="E60" s="26" t="s">
@@ -3278,19 +3368,19 @@
       <c r="F60" s="28">
         <v>1</v>
       </c>
-      <c r="G60" s="45">
-        <v>2</v>
-      </c>
-      <c r="H60" s="45"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="41"/>
+      <c r="G60" s="43">
+        <v>2</v>
+      </c>
+      <c r="H60" s="43"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="40"/>
       <c r="K60" s="32"/>
       <c r="L60" s="33"/>
-      <c r="N60" s="41">
+      <c r="N60" s="40">
         <f t="shared" si="0"/>
         <v>544</v>
       </c>
-      <c r="O60" s="41">
+      <c r="O60" s="40">
         <f t="shared" si="1"/>
         <v>313</v>
       </c>
@@ -3305,7 +3395,7 @@
       <c r="C61" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="42" t="s">
+      <c r="D61" s="41" t="s">
         <v>123</v>
       </c>
       <c r="E61" s="26" t="s">
@@ -3314,27 +3404,27 @@
       <c r="F61" s="28">
         <v>1</v>
       </c>
-      <c r="G61" s="45">
-        <v>2</v>
-      </c>
-      <c r="H61" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I61" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="J61" s="41">
+      <c r="G61" s="43">
+        <v>2</v>
+      </c>
+      <c r="H61" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I61" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J61" s="40">
         <v>0.5</v>
       </c>
       <c r="K61" s="32" t="s">
         <v>148</v>
       </c>
       <c r="L61" s="33"/>
-      <c r="N61" s="41">
+      <c r="N61" s="40">
         <f t="shared" si="0"/>
         <v>942</v>
       </c>
-      <c r="O61" s="41">
+      <c r="O61" s="40">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
@@ -3349,7 +3439,7 @@
       <c r="C62" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="D62" s="42" t="s">
+      <c r="D62" s="41" t="s">
         <v>128</v>
       </c>
       <c r="E62" s="26" t="s">
@@ -3358,21 +3448,21 @@
       <c r="F62" s="28">
         <v>1</v>
       </c>
-      <c r="G62" s="45">
-        <v>2</v>
-      </c>
-      <c r="H62" s="45"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="41"/>
+      <c r="G62" s="43">
+        <v>2</v>
+      </c>
+      <c r="H62" s="43"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="40"/>
       <c r="K62" s="32" t="s">
         <v>147</v>
       </c>
       <c r="L62" s="23"/>
-      <c r="N62" s="41">
+      <c r="N62" s="40">
         <f t="shared" si="0"/>
         <v>864</v>
       </c>
-      <c r="O62" s="41">
+      <c r="O62" s="40">
         <f t="shared" si="1"/>
         <v>313</v>
       </c>
@@ -3387,7 +3477,7 @@
       <c r="C63" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="41" t="s">
         <v>128</v>
       </c>
       <c r="E63" s="26" t="s">
@@ -3396,21 +3486,21 @@
       <c r="F63" s="28">
         <v>1</v>
       </c>
-      <c r="G63" s="45">
-        <v>2</v>
-      </c>
-      <c r="H63" s="45"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="41"/>
+      <c r="G63" s="43">
+        <v>2</v>
+      </c>
+      <c r="H63" s="43"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="40"/>
       <c r="K63" s="32" t="s">
         <v>147</v>
       </c>
       <c r="L63" s="23"/>
-      <c r="N63" s="41">
+      <c r="N63" s="40">
         <f t="shared" si="0"/>
         <v>546</v>
       </c>
-      <c r="O63" s="41">
+      <c r="O63" s="40">
         <f t="shared" si="1"/>
         <v>313</v>
       </c>
@@ -3425,7 +3515,7 @@
       <c r="C64" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D64" s="41" t="s">
         <v>140</v>
       </c>
       <c r="E64" s="26" t="s">
@@ -3434,13 +3524,13 @@
       <c r="F64" s="28">
         <v>1</v>
       </c>
-      <c r="G64" s="45">
-        <v>2</v>
-      </c>
-      <c r="H64" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I64" s="52">
+      <c r="G64" s="43">
+        <v>2</v>
+      </c>
+      <c r="H64" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="46">
         <v>0.5</v>
       </c>
       <c r="J64" s="36">
@@ -3448,11 +3538,11 @@
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="23"/>
-      <c r="N64" s="41">
+      <c r="N64" s="40">
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="O64" s="41">
+      <c r="O64" s="40">
         <f t="shared" si="1"/>
         <v>295</v>
       </c>
@@ -3467,7 +3557,7 @@
       <c r="C65" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D65" s="41" t="s">
         <v>145</v>
       </c>
       <c r="E65" s="26" t="s">
@@ -3476,13 +3566,13 @@
       <c r="F65" s="28">
         <v>1</v>
       </c>
-      <c r="G65" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="H65" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I65" s="52">
+      <c r="G65" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I65" s="46">
         <v>0.5</v>
       </c>
       <c r="J65" s="36">
@@ -3492,342 +3582,1014 @@
         <v>146</v>
       </c>
       <c r="L65" s="23"/>
-      <c r="N65" s="41">
+      <c r="N65" s="40">
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="O65" s="41">
+      <c r="O65" s="40">
         <f t="shared" si="1"/>
         <v>542</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="32"/>
+      <c r="A66" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="28">
+        <v>2</v>
+      </c>
+      <c r="G66" s="43">
+        <v>2</v>
+      </c>
+      <c r="H66" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J66" s="40"/>
+      <c r="K66" s="32" t="s">
+        <v>152</v>
+      </c>
       <c r="L66" s="23"/>
-      <c r="N66" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N66" s="40">
+        <f t="shared" si="0"/>
+        <v>562</v>
+      </c>
+      <c r="O66" s="40">
+        <f t="shared" si="1"/>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="32"/>
+      <c r="A67" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="28">
+        <v>1</v>
+      </c>
+      <c r="G67" s="43">
+        <v>2</v>
+      </c>
+      <c r="H67" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I67" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J67" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="K67" s="32" t="s">
+        <v>151</v>
+      </c>
       <c r="L67" s="23"/>
-      <c r="N67" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N67" s="40">
+        <f t="shared" si="0"/>
+        <v>942</v>
+      </c>
+      <c r="O67" s="40">
+        <f t="shared" si="1"/>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="46"/>
+      <c r="A68" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" s="28">
+        <v>1</v>
+      </c>
+      <c r="G68" s="43">
+        <v>2</v>
+      </c>
+      <c r="H68" s="44"/>
       <c r="I68" s="37"/>
       <c r="J68" s="36"/>
       <c r="K68" s="32"/>
       <c r="L68" s="23"/>
-      <c r="N68" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O68" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N68" s="40">
+        <f t="shared" si="0"/>
+        <v>864</v>
+      </c>
+      <c r="O68" s="40">
+        <f t="shared" si="1"/>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="32"/>
+      <c r="A69" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="28">
+        <v>2</v>
+      </c>
+      <c r="G69" s="43">
+        <v>2</v>
+      </c>
+      <c r="H69" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J69" s="40"/>
+      <c r="K69" s="32" t="s">
+        <v>158</v>
+      </c>
       <c r="L69" s="23"/>
-      <c r="N69" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N69" s="40">
+        <f t="shared" si="0"/>
+        <v>747</v>
+      </c>
+      <c r="O69" s="40">
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="19"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="32"/>
+      <c r="A70" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="28">
+        <v>1</v>
+      </c>
+      <c r="G70" s="43">
+        <v>2</v>
+      </c>
+      <c r="H70" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J70" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="K70" s="32" t="s">
+        <v>170</v>
+      </c>
       <c r="L70" s="23"/>
-      <c r="N70" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O70" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N70" s="40">
+        <f t="shared" si="0"/>
+        <v>942</v>
+      </c>
+      <c r="O70" s="40">
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="46"/>
+      <c r="A71" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="28">
+        <v>1</v>
+      </c>
+      <c r="G71" s="43">
+        <v>2</v>
+      </c>
+      <c r="H71" s="44"/>
       <c r="I71" s="37"/>
       <c r="J71" s="36"/>
-      <c r="K71" s="32"/>
+      <c r="K71" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="L71" s="23"/>
-      <c r="N71" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N71" s="40">
+        <f t="shared" si="0"/>
+        <v>906</v>
+      </c>
+      <c r="O71" s="40">
+        <f t="shared" si="1"/>
+        <v>563</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="33"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="35"/>
+      <c r="A72" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" s="28">
+        <v>1</v>
+      </c>
+      <c r="G72" s="43">
+        <v>2</v>
+      </c>
+      <c r="H72" s="42"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="L72" s="33"/>
-      <c r="N72" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O72" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N72" s="40">
+        <f t="shared" si="0"/>
+        <v>906</v>
+      </c>
+      <c r="O72" s="40">
+        <f t="shared" si="1"/>
+        <v>543</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="33"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="41"/>
+      <c r="A73" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" s="28">
+        <v>4</v>
+      </c>
+      <c r="G73" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="H73" s="42"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="40"/>
       <c r="K73" s="35"/>
       <c r="L73" s="33"/>
-      <c r="N73" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N73" s="40">
+        <f t="shared" si="0"/>
+        <v>355.5</v>
+      </c>
+      <c r="O73" s="40">
+        <f t="shared" si="1"/>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="33"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="41"/>
+      <c r="A74" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="28">
+        <v>2</v>
+      </c>
+      <c r="G74" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="H74" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I74" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J74" s="46">
+        <v>0.5</v>
+      </c>
       <c r="K74" s="35"/>
       <c r="L74" s="33"/>
-      <c r="N74" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N74" s="40">
+        <f t="shared" si="0"/>
+        <v>353</v>
+      </c>
+      <c r="O74" s="40">
+        <f t="shared" si="1"/>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="33"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="35"/>
+      <c r="A75" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="28">
+        <v>2</v>
+      </c>
+      <c r="G75" s="43">
+        <v>2</v>
+      </c>
+      <c r="H75" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I75" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J75" s="40"/>
+      <c r="K75" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="L75" s="33"/>
-      <c r="N75" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O75" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N75" s="40">
+        <f t="shared" si="0"/>
+        <v>747</v>
+      </c>
+      <c r="O75" s="40">
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="33"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="35"/>
+      <c r="A76" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" s="28">
+        <v>1</v>
+      </c>
+      <c r="G76" s="43">
+        <v>2</v>
+      </c>
+      <c r="H76" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I76" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J76" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="K76" s="32" t="s">
+        <v>175</v>
+      </c>
       <c r="L76" s="33"/>
-      <c r="N76" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O76" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N76" s="40">
+        <f t="shared" si="0"/>
+        <v>942</v>
+      </c>
+      <c r="O76" s="40">
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="33"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="47"/>
+      <c r="A77" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="28">
+        <v>1</v>
+      </c>
+      <c r="G77" s="43">
+        <v>2</v>
+      </c>
       <c r="H77" s="44"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="35"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="32"/>
       <c r="L77" s="33"/>
-      <c r="N77" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N77" s="40">
+        <f t="shared" si="0"/>
+        <v>906</v>
+      </c>
+      <c r="O77" s="40">
+        <f t="shared" si="1"/>
+        <v>563</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="33"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="41"/>
+      <c r="A78" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="28">
+        <v>1</v>
+      </c>
+      <c r="G78" s="43">
+        <v>2</v>
+      </c>
+      <c r="H78" s="42"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="40"/>
       <c r="K78" s="35"/>
       <c r="L78" s="33"/>
-      <c r="N78" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O78" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N78" s="40">
+        <f t="shared" si="0"/>
+        <v>906</v>
+      </c>
+      <c r="O78" s="40">
+        <f t="shared" si="1"/>
+        <v>543</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="33"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="41"/>
+      <c r="A79" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="28">
+        <v>2</v>
+      </c>
+      <c r="G79" s="43">
+        <v>2</v>
+      </c>
+      <c r="H79" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I79" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J79" s="46">
+        <v>0.5</v>
+      </c>
       <c r="K79" s="35"/>
       <c r="L79" s="33"/>
-      <c r="N79" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O79" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N79" s="40">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="O79" s="40">
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
       <c r="C80" s="38"/>
-      <c r="D80" s="44"/>
+      <c r="D80" s="42"/>
       <c r="E80" s="33"/>
       <c r="F80" s="33"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="41"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="40"/>
       <c r="K80" s="35"/>
       <c r="L80" s="33"/>
-      <c r="N80" s="41">
+      <c r="N80" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O80" s="41">
-        <f t="shared" si="1"/>
+      <c r="O80" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="33"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="33"/>
+      <c r="N81" s="40">
+        <f t="shared" ref="N81:N99" si="2">C81+I81+J81</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="40">
+        <f t="shared" ref="O81:O99" si="3">D81+G81+H81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="33"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="33"/>
+      <c r="N82" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O82" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="33"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="33"/>
+      <c r="N83" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="33"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="33"/>
+      <c r="N84" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="33"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="33"/>
+      <c r="N85" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="33"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="33"/>
+      <c r="N86" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="33"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="33"/>
+      <c r="N87" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="33"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="33"/>
+      <c r="N88" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="33"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="33"/>
+      <c r="N89" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="33"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="33"/>
+      <c r="N90" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="33"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="33"/>
+      <c r="N91" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="33"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="33"/>
+      <c r="N92" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="33"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="33"/>
+      <c r="N93" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O93" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="33"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="33"/>
+      <c r="N94" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="33"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="33"/>
+      <c r="N95" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="33"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="33"/>
+      <c r="N96" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="33"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="33"/>
+      <c r="N97" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O97" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="33"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="33"/>
+      <c r="N98" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="33"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="33"/>
+      <c r="N99" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O99" s="40">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/тх81 Спецификация по деталям(14.12.19).xlsx
+++ b/тх81 Спецификация по деталям(14.12.19).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roman\Autowork\2019\dopwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD48EF1-C664-4972-B66E-2B214735694F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75C8EF-DABB-4EC1-BB19-9BDD57F11BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="199">
   <si>
     <t>Наименование</t>
   </si>
@@ -573,6 +573,60 @@
   </si>
   <si>
     <t>1979</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>Отверстие  Лист 8</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>Задняя стенка</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>519.5</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>Дно, крышка секции (2 шт)</t>
+  </si>
+  <si>
+    <t>482.5</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
+    <t>13.5</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4154,57 +4208,99 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="33"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="42"/>
+      <c r="A80" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" s="28">
+        <v>1</v>
+      </c>
+      <c r="G80" s="43">
+        <v>2</v>
+      </c>
+      <c r="H80" s="43"/>
       <c r="I80" s="46"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="35"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="32" t="s">
+        <v>182</v>
+      </c>
       <c r="L80" s="33"/>
       <c r="N80" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="O80" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>562</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="33"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="42"/>
+      <c r="A81" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" s="28">
+        <v>1</v>
+      </c>
+      <c r="G81" s="43">
+        <v>2</v>
+      </c>
+      <c r="H81" s="43"/>
       <c r="I81" s="46"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="35"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="32"/>
       <c r="L81" s="33"/>
       <c r="N81" s="40">
         <f t="shared" ref="N81:N99" si="2">C81+I81+J81</f>
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="O81" s="40">
         <f t="shared" ref="O81:O99" si="3">D81+G81+H81</f>
-        <v>0</v>
+        <v>522</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="33"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="45"/>
+      <c r="A82" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" s="28">
+        <v>1</v>
+      </c>
+      <c r="G82" s="43"/>
       <c r="H82" s="42"/>
       <c r="I82" s="46"/>
       <c r="J82" s="40"/>
@@ -4212,109 +4308,193 @@
       <c r="L82" s="33"/>
       <c r="N82" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="O82" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="33"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="40"/>
+      <c r="A83" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83" s="28">
+        <v>1</v>
+      </c>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J83" s="46">
+        <v>0.5</v>
+      </c>
       <c r="K83" s="35"/>
       <c r="L83" s="33"/>
       <c r="N83" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="O83" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84" s="33"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="40"/>
+      <c r="A84" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="28">
+        <v>2</v>
+      </c>
+      <c r="G84" s="43">
+        <v>2</v>
+      </c>
+      <c r="H84" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I84" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J84" s="46">
+        <v>0.5</v>
+      </c>
       <c r="K84" s="35"/>
       <c r="L84" s="33"/>
       <c r="N84" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="O84" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" s="33"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="42"/>
+      <c r="A85" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F85" s="28">
+        <v>2</v>
+      </c>
+      <c r="G85" s="43">
+        <v>2</v>
+      </c>
+      <c r="H85" s="43">
+        <v>0.5</v>
+      </c>
       <c r="I85" s="46"/>
       <c r="J85" s="40"/>
       <c r="K85" s="35"/>
       <c r="L85" s="33"/>
       <c r="N85" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="O85" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="33"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="40"/>
+      <c r="A86" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" s="28">
+        <v>1</v>
+      </c>
+      <c r="G86" s="43">
+        <v>2</v>
+      </c>
+      <c r="H86" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I86" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J86" s="46">
+        <v>0.5</v>
+      </c>
       <c r="K86" s="35"/>
       <c r="L86" s="33"/>
       <c r="N86" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="O86" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="33"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="45"/>
+      <c r="A87" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87" s="28">
+        <v>1</v>
+      </c>
+      <c r="G87" s="43"/>
       <c r="H87" s="42"/>
       <c r="I87" s="46"/>
       <c r="J87" s="40"/>
@@ -4322,33 +4502,49 @@
       <c r="L87" s="33"/>
       <c r="N87" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="O87" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="33"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
+      <c r="A88" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" s="28">
+        <v>1</v>
+      </c>
       <c r="G88" s="45"/>
       <c r="H88" s="42"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="40"/>
+      <c r="I88" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J88" s="46">
+        <v>0.5</v>
+      </c>
       <c r="K88" s="35"/>
       <c r="L88" s="33"/>
       <c r="N88" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="O88" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
